--- a/data/trans_orig/P07-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P07-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>21981</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14345</v>
+        <v>14724</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32331</v>
+        <v>33168</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03167196332637552</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02066998298318048</v>
+        <v>0.02121567945661513</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04658616591299489</v>
+        <v>0.04779201250556139</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>55</v>
@@ -765,19 +765,19 @@
         <v>55575</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>40841</v>
+        <v>42092</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>70524</v>
+        <v>69733</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.08073672911818056</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.05933152110850137</v>
+        <v>0.06114898959807997</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1024530632005299</v>
+        <v>0.1013045077008998</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>77</v>
@@ -786,19 +786,19 @@
         <v>77556</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61655</v>
+        <v>62572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95551</v>
+        <v>96488</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05610388043887055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04460092092836061</v>
+        <v>0.0452645749055562</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06912170907357115</v>
+        <v>0.06979901294961198</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>97381</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>81584</v>
+        <v>79670</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118109</v>
+        <v>117081</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1403165044650902</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1175546021485462</v>
+        <v>0.1147961775262593</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1701831475092234</v>
+        <v>0.1687021916892054</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>154</v>
@@ -836,19 +836,19 @@
         <v>150294</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>130675</v>
+        <v>129370</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>171750</v>
+        <v>171687</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2183390748175246</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1898373893684014</v>
+        <v>0.1879412619182736</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2495093248016269</v>
+        <v>0.2494177968896357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>251</v>
@@ -857,19 +857,19 @@
         <v>247675</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221205</v>
+        <v>221149</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>278299</v>
+        <v>275036</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1791680294034376</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1600197867408674</v>
+        <v>0.1599787653031639</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2013209068099318</v>
+        <v>0.1989611164339485</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>229260</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>204688</v>
+        <v>205376</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>255895</v>
+        <v>254484</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3303402249819279</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2949345670172118</v>
+        <v>0.2959256011154895</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3687184362218923</v>
+        <v>0.3666854742440042</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>273</v>
@@ -907,19 +907,19 @@
         <v>272314</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>249410</v>
+        <v>247984</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>302167</v>
+        <v>296830</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3956034770000921</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3623298537915692</v>
+        <v>0.360257446881935</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4389716044050505</v>
+        <v>0.4312193604231271</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>502</v>
@@ -928,19 +928,19 @@
         <v>501574</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>463738</v>
+        <v>468468</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>533137</v>
+        <v>537909</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3628382169333331</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3354672863313531</v>
+        <v>0.338889497801845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3856706801982799</v>
+        <v>0.3891228798541095</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>278561</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>252937</v>
+        <v>253335</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>306057</v>
+        <v>304726</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4013777422124544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3644564292614219</v>
+        <v>0.3650297293824358</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.440997257532603</v>
+        <v>0.4390786685240437</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>168</v>
@@ -978,19 +978,19 @@
         <v>163272</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>141163</v>
+        <v>141915</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>186115</v>
+        <v>186278</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.237192870040794</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2050745375349563</v>
+        <v>0.2061668459510591</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.270377811160791</v>
+        <v>0.2706154694094759</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>438</v>
@@ -999,19 +999,19 @@
         <v>441833</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>407004</v>
+        <v>407677</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>475746</v>
+        <v>476346</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3196214936440858</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.294426184257161</v>
+        <v>0.2949130875381518</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3441543366963041</v>
+        <v>0.3445879239630215</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>66829</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52006</v>
+        <v>51900</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84226</v>
+        <v>83978</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.09629356501415208</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07493528480998587</v>
+        <v>0.07478295533841298</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1213609074059747</v>
+        <v>0.1210038915769464</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>46</v>
@@ -1049,19 +1049,19 @@
         <v>46896</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>34997</v>
+        <v>35005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>61589</v>
+        <v>62201</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06812784902340878</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.05084234699293149</v>
+        <v>0.05085365389249885</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08947352636852025</v>
+        <v>0.09036234090182246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>111</v>
@@ -1070,19 +1070,19 @@
         <v>113725</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>93715</v>
+        <v>93626</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>136360</v>
+        <v>133207</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.08226837958027293</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.06779341498584991</v>
+        <v>0.06772903481329492</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09864273253051749</v>
+        <v>0.0963616425384944</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>26888</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17506</v>
+        <v>18203</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>37546</v>
+        <v>37139</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02798733214396447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01822191004677269</v>
+        <v>0.01894739556150183</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03908106972987765</v>
+        <v>0.03865744381651581</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -1195,19 +1195,19 @@
         <v>54956</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42026</v>
+        <v>40427</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>71766</v>
+        <v>70327</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05674919299193774</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04339790192145627</v>
+        <v>0.04174699406381982</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.07410847739165272</v>
+        <v>0.07262268109746967</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>77</v>
@@ -1216,19 +1216,19 @@
         <v>81843</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>64884</v>
+        <v>64922</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101295</v>
+        <v>102595</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04242549655777713</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0336342344734382</v>
+        <v>0.03365403617533443</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05250895087418451</v>
+        <v>0.05318247676104104</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>122137</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>101776</v>
+        <v>101814</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145181</v>
+        <v>143311</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1271314201359037</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1059373963509564</v>
+        <v>0.1059775502810341</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.151116982899058</v>
+        <v>0.1491714670677436</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>233</v>
@@ -1266,19 +1266,19 @@
         <v>252438</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>225439</v>
+        <v>223862</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>283578</v>
+        <v>281101</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2606777205388708</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2327973243323167</v>
+        <v>0.2311686545982955</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2928338890694262</v>
+        <v>0.2902757791432721</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>350</v>
@@ -1287,19 +1287,19 @@
         <v>374576</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>340419</v>
+        <v>339729</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>410689</v>
+        <v>412314</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1941703176629504</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1764644644028256</v>
+        <v>0.1761067909215178</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2128904951959292</v>
+        <v>0.2137330647895461</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>346185</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>314797</v>
+        <v>315456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>375995</v>
+        <v>377484</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3603408086455076</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3276690940980561</v>
+        <v>0.3283548116767092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3913700004474512</v>
+        <v>0.3929197562056486</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>378</v>
@@ -1337,19 +1337,19 @@
         <v>404379</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>372936</v>
+        <v>373101</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>433132</v>
+        <v>438330</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.417577039839775</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3851084776782272</v>
+        <v>0.3852782925383629</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4472691158485529</v>
+        <v>0.4526368768161682</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>703</v>
@@ -1358,19 +1358,19 @@
         <v>750564</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>708720</v>
+        <v>700046</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>795933</v>
+        <v>792115</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3890728201373182</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3673822229574052</v>
+        <v>0.3628857571555168</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4125910272005723</v>
+        <v>0.4106117384378625</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>351279</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>322504</v>
+        <v>321675</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>382996</v>
+        <v>384473</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.365642807043221</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3356917318340059</v>
+        <v>0.334828516541296</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3986569450910592</v>
+        <v>0.4001943981540935</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>189</v>
@@ -1408,19 +1408,19 @@
         <v>196271</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>171772</v>
+        <v>172360</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>222038</v>
+        <v>221913</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2026767274548992</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1773781487299606</v>
+        <v>0.177985836349815</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2292847230775787</v>
+        <v>0.2291560315268665</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>515</v>
@@ -1429,19 +1429,19 @@
         <v>547550</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>507776</v>
+        <v>508578</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>589875</v>
+        <v>588934</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2838354767245198</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2632179558732354</v>
+        <v>0.2636338372452783</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3057760207573033</v>
+        <v>0.3052880895081698</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>114227</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>93902</v>
+        <v>94424</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>135468</v>
+        <v>137765</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1188976320314032</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09774162468799939</v>
+        <v>0.09828463142650247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1410069019226759</v>
+        <v>0.1433979299302904</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>57</v>
@@ -1479,19 +1479,19 @@
         <v>60350</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>45733</v>
+        <v>45553</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>75706</v>
+        <v>76054</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.06231931917451724</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04722611401192559</v>
+        <v>0.04704013390561123</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.078177422678081</v>
+        <v>0.07853652417745376</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>158</v>
@@ -1500,19 +1500,19 @@
         <v>174576</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>148713</v>
+        <v>147579</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>200983</v>
+        <v>201448</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09049588891743451</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.07708876970497495</v>
+        <v>0.07650110579279792</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1041842862240175</v>
+        <v>0.1044255016997772</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>14686</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>8375</v>
+        <v>8265</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24624</v>
+        <v>24995</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02164400500950129</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01234337505393321</v>
+        <v>0.01218068365122671</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03629069440931079</v>
+        <v>0.03683841539791913</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>25</v>
@@ -1625,19 +1625,19 @@
         <v>25207</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>15781</v>
+        <v>16903</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>36228</v>
+        <v>35622</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03686034287406165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02307659561195772</v>
+        <v>0.02471805367708796</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05297704008002772</v>
+        <v>0.05209037175471595</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>39</v>
@@ -1646,19 +1646,19 @@
         <v>39892</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>29017</v>
+        <v>28197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>56182</v>
+        <v>53019</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02928195166426374</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02129938767340647</v>
+        <v>0.02069699026055419</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04123938910359305</v>
+        <v>0.03891700410747551</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>93119</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>74158</v>
+        <v>74774</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>112062</v>
+        <v>112355</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1372409620800278</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1092953944962791</v>
+        <v>0.1102034545155161</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1651594438441523</v>
+        <v>0.165590345940424</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -1696,19 +1696,19 @@
         <v>154904</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>132784</v>
+        <v>133772</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177164</v>
+        <v>177100</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2265200746028397</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.194174376630274</v>
+        <v>0.1956179304096116</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2590722809954082</v>
+        <v>0.2589784311474289</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>247</v>
@@ -1717,19 +1717,19 @@
         <v>248023</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>220395</v>
+        <v>218888</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>277923</v>
+        <v>277545</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1820552337466667</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1617752912076736</v>
+        <v>0.1606690768219214</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2040025160235002</v>
+        <v>0.2037250399328013</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>279146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>254960</v>
+        <v>252038</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>308353</v>
+        <v>305620</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4114113706221672</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.375764780346843</v>
+        <v>0.3714581303087131</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4544560762445137</v>
+        <v>0.4504294394443913</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>294</v>
@@ -1767,19 +1767,19 @@
         <v>287289</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>262000</v>
+        <v>261099</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>314249</v>
+        <v>313368</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.4201106396319171</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3831295158791012</v>
+        <v>0.3818117807547296</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4595348800864632</v>
+        <v>0.4582462943117662</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>559</v>
@@ -1788,19 +1788,19 @@
         <v>566435</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>528821</v>
+        <v>529600</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>601443</v>
+        <v>604586</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4157780292244746</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3881683957326941</v>
+        <v>0.3887399936822949</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4414747454183286</v>
+        <v>0.4437818726396615</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>218634</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>193256</v>
+        <v>192560</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>243019</v>
+        <v>244926</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3222268683587991</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2848239229800531</v>
+        <v>0.2837994318632129</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3581658941483143</v>
+        <v>0.3609772030625817</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>160</v>
@@ -1838,19 +1838,19 @@
         <v>158175</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>136522</v>
+        <v>137139</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180813</v>
+        <v>181260</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2313041189491153</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1996400322819675</v>
+        <v>0.200542813742639</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2644078751121801</v>
+        <v>0.2650619764219165</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>362</v>
@@ -1859,19 +1859,19 @@
         <v>376809</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>340970</v>
+        <v>342958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>408801</v>
+        <v>413560</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2765875617216259</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2502808605009232</v>
+        <v>0.2517403448047528</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3000707626848702</v>
+        <v>0.3035639048793623</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>72924</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>58511</v>
+        <v>57990</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>91348</v>
+        <v>90076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1074767939295046</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08623461920809475</v>
+        <v>0.08546743950562466</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1346305787293891</v>
+        <v>0.1327561071082037</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -1909,19 +1909,19 @@
         <v>58267</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>45421</v>
+        <v>45329</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73926</v>
+        <v>72962</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0852048239420663</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06642098223703605</v>
+        <v>0.06628621071361682</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.108104383681535</v>
+        <v>0.10669493092396</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>130</v>
@@ -1930,19 +1930,19 @@
         <v>131191</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110597</v>
+        <v>111622</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155312</v>
+        <v>155090</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.0962972236429691</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08118140950825679</v>
+        <v>0.08193326645938603</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1140026577923516</v>
+        <v>0.1138400017348017</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>16999</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>10943</v>
+        <v>10296</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25998</v>
+        <v>25398</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01804091615869243</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01161445567921152</v>
+        <v>0.0109275159134136</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02759257849800598</v>
+        <v>0.02695491609704806</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>58</v>
@@ -2055,19 +2055,19 @@
         <v>59625</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45912</v>
+        <v>45283</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>77429</v>
+        <v>75643</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05740811212114919</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04420479527238463</v>
+        <v>0.04359961120303595</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07455090596626331</v>
+        <v>0.07283045647582936</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>78</v>
@@ -2076,19 +2076,19 @@
         <v>76623</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>60799</v>
+        <v>59929</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>96555</v>
+        <v>93358</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.03868234305161962</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03069352038414199</v>
+        <v>0.03025456872890045</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.04874461348509123</v>
+        <v>0.04713086676757302</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>119217</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>101506</v>
+        <v>100612</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>141882</v>
+        <v>138800</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1265275317287896</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1077300808472434</v>
+        <v>0.1067818770393515</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1505822370753281</v>
+        <v>0.1473118300058736</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>203</v>
@@ -2126,19 +2126,19 @@
         <v>214714</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>189606</v>
+        <v>191397</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>240815</v>
+        <v>241799</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2067318290357255</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1825571721763317</v>
+        <v>0.1842818823862157</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2318623101669338</v>
+        <v>0.2328094724352802</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>329</v>
@@ -2147,19 +2147,19 @@
         <v>333931</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>300964</v>
+        <v>300228</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>366922</v>
+        <v>368220</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.168581101938325</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1519380665844154</v>
+        <v>0.1515665918960258</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.185236317243122</v>
+        <v>0.1858912184687375</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>353339</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>324604</v>
+        <v>324643</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>383453</v>
+        <v>380797</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3750062732224222</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3445086313248447</v>
+        <v>0.3445499062220788</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4069668226557837</v>
+        <v>0.4041480547787939</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>391</v>
@@ -2197,19 +2197,19 @@
         <v>408367</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>380077</v>
+        <v>378090</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>442306</v>
+        <v>440975</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3931855720455747</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3659468084070812</v>
+        <v>0.3640337996312382</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4258622375340854</v>
+        <v>0.424581177010693</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>766</v>
@@ -2218,19 +2218,19 @@
         <v>761706</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>718919</v>
+        <v>721788</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>804101</v>
+        <v>811599</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3845382365347353</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3629375569817547</v>
+        <v>0.3643859861908878</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.405940615428466</v>
+        <v>0.4097259557143551</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>347301</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>318062</v>
+        <v>320669</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>375089</v>
+        <v>377060</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3685975500160712</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3375661727948375</v>
+        <v>0.3403324544558856</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3980902355048206</v>
+        <v>0.4001814357055859</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>254</v>
@@ -2268,19 +2268,19 @@
         <v>260659</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>235544</v>
+        <v>234138</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>290752</v>
+        <v>289346</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2509685201162083</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2267875474974538</v>
+        <v>0.2254336686610656</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2799423968874153</v>
+        <v>0.2785888066668994</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>617</v>
@@ -2289,19 +2289,19 @@
         <v>607960</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>568834</v>
+        <v>567492</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>651116</v>
+        <v>648534</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.306921045967383</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2871689707328701</v>
+        <v>0.2864913590806976</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3287077817456373</v>
+        <v>0.3274045150063888</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>105367</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>86871</v>
+        <v>87172</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>127396</v>
+        <v>125763</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1118277288740246</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09219826216933003</v>
+        <v>0.09251773416164857</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1352078122251223</v>
+        <v>0.1334754380846069</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -2339,19 +2339,19 @@
         <v>95247</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78691</v>
+        <v>78598</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114375</v>
+        <v>115167</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09170596668134226</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07576542473288544</v>
+        <v>0.07567626867111062</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1101228269559463</v>
+        <v>0.1108851970987327</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>201</v>
@@ -2360,19 +2360,19 @@
         <v>200613</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>173569</v>
+        <v>175083</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>229933</v>
+        <v>228307</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.101277272507937</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.08762405973887072</v>
+        <v>0.08838845670101667</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1160791121539936</v>
+        <v>0.1152579780835643</v>
       </c>
     </row>
     <row r="27">
@@ -2464,19 +2464,19 @@
         <v>80553</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>64647</v>
+        <v>65569</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>99474</v>
+        <v>99070</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02459282786120198</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01973689475073093</v>
+        <v>0.02001820669832913</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03036952612467676</v>
+        <v>0.03024602888784226</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>189</v>
@@ -2485,19 +2485,19 @@
         <v>195362</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>169837</v>
+        <v>170155</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>224507</v>
+        <v>225236</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05781317145324714</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05025953657943617</v>
+        <v>0.05035364525738943</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06643784502446018</v>
+        <v>0.06665361304580422</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>271</v>
@@ -2506,19 +2506,19 @@
         <v>275915</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>244523</v>
+        <v>246376</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>307800</v>
+        <v>311459</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04146193330101709</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03674460053060555</v>
+        <v>0.03702314565848851</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04625329589651055</v>
+        <v>0.04680313951171697</v>
       </c>
     </row>
     <row r="29">
@@ -2535,19 +2535,19 @@
         <v>431855</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>394833</v>
+        <v>397602</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>470285</v>
+        <v>471943</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1318455769998638</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1205426756083905</v>
+        <v>0.1213883128905383</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1435782182307071</v>
+        <v>0.1440844732403338</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>747</v>
@@ -2556,19 +2556,19 @@
         <v>772350</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>727592</v>
+        <v>729112</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>824803</v>
+        <v>825187</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2285602987696919</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2153149568198841</v>
+        <v>0.2157648858351017</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2440826561482957</v>
+        <v>0.244196215752551</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1177</v>
@@ -2577,19 +2577,19 @@
         <v>1204205</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1141141</v>
+        <v>1139609</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1269137</v>
+        <v>1267788</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1809567740167509</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1714800924217115</v>
+        <v>0.1712498599677677</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1907141687891422</v>
+        <v>0.1905114785493278</v>
       </c>
     </row>
     <row r="30">
@@ -2606,19 +2606,19 @@
         <v>1207931</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1146530</v>
+        <v>1150959</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1262274</v>
+        <v>1260369</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3687821273946106</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3500365873795543</v>
+        <v>0.3513887500901154</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3853732581573923</v>
+        <v>0.3847914461525616</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1336</v>
@@ -2627,19 +2627,19 @@
         <v>1372349</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1314124</v>
+        <v>1318141</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1431170</v>
+        <v>1428189</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4061168576332819</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3888864749859481</v>
+        <v>0.390075317279618</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4235236744366689</v>
+        <v>0.4226416610167997</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2530</v>
@@ -2648,19 +2648,19 @@
         <v>2580280</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2502995</v>
+        <v>2506333</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2659666</v>
+        <v>2675400</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3877404954565836</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3761268552102342</v>
+        <v>0.3766284630371535</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3996699365161088</v>
+        <v>0.4020343518126006</v>
       </c>
     </row>
     <row r="31">
@@ -2677,19 +2677,19 @@
         <v>1195774</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1141225</v>
+        <v>1137165</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1252288</v>
+        <v>1247863</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3650707948931452</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3484168198992468</v>
+        <v>0.3471772564163678</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.382324458456138</v>
+        <v>0.3809736144219432</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>771</v>
@@ -2698,19 +2698,19 @@
         <v>778377</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>727603</v>
+        <v>728321</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>828621</v>
+        <v>824706</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2303437258833724</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.215318275647543</v>
+        <v>0.2155308738054229</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2452123324613485</v>
+        <v>0.2440539291163664</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1932</v>
@@ -2719,19 +2719,19 @@
         <v>1974151</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1898650</v>
+        <v>1895683</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2057633</v>
+        <v>2053316</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.296657139675343</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2853115456413106</v>
+        <v>0.2848656640519723</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.309201940111682</v>
+        <v>0.3085533290023018</v>
       </c>
     </row>
     <row r="32">
@@ -2748,19 +2748,19 @@
         <v>359346</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>326198</v>
+        <v>322164</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>400083</v>
+        <v>399288</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1097086728511784</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09958859357611266</v>
+        <v>0.09835684991739321</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1221456822099823</v>
+        <v>0.1219027911273357</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>254</v>
@@ -2769,19 +2769,19 @@
         <v>260759</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>232725</v>
+        <v>232895</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>293127</v>
+        <v>292107</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.07716594626040663</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06887002469225437</v>
+        <v>0.06892025585299161</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08674471770092637</v>
+        <v>0.08644273016814578</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>600</v>
@@ -2790,19 +2790,19 @@
         <v>620105</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>571597</v>
+        <v>571600</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>671457</v>
+        <v>667114</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09318365755030543</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08589432509672855</v>
+        <v>0.08589482122795376</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1009003473827076</v>
+        <v>0.1002477140861422</v>
       </c>
     </row>
     <row r="33">
@@ -3134,19 +3134,19 @@
         <v>29469</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19712</v>
+        <v>19317</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>42018</v>
+        <v>42238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04193554433032855</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02805177956394326</v>
+        <v>0.02748972236116719</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05979403355633404</v>
+        <v>0.06010608058300713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>43</v>
@@ -3155,19 +3155,19 @@
         <v>45290</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>33048</v>
+        <v>31773</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>59463</v>
+        <v>60380</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06497330731461044</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04741073897438491</v>
+        <v>0.04558242394630122</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08530658373178983</v>
+        <v>0.08662230235742116</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>71</v>
@@ -3176,19 +3176,19 @@
         <v>74758</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>58697</v>
+        <v>59907</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>91241</v>
+        <v>92525</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.05340779618352536</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.04193317135097457</v>
+        <v>0.04279764958504354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06518287294896213</v>
+        <v>0.06610030857848163</v>
       </c>
     </row>
     <row r="5">
@@ -3205,19 +3205,19 @@
         <v>97839</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>80285</v>
+        <v>79441</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>118084</v>
+        <v>118415</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1392295226014904</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1142496066418563</v>
+        <v>0.1130485157938114</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1680388270725578</v>
+        <v>0.1685110231167706</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -3226,19 +3226,19 @@
         <v>147690</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>126002</v>
+        <v>125219</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>170754</v>
+        <v>169221</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2118785672706305</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1807640186643759</v>
+        <v>0.1796412037416996</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2449660935409647</v>
+        <v>0.2427680859794678</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>229</v>
@@ -3247,19 +3247,19 @@
         <v>245529</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>215262</v>
+        <v>217679</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>277015</v>
+        <v>273357</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1754069994644636</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1537841394688638</v>
+        <v>0.1555106628458713</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1979011357319097</v>
+        <v>0.1952877509459569</v>
       </c>
     </row>
     <row r="6">
@@ -3276,19 +3276,19 @@
         <v>292786</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>266806</v>
+        <v>268375</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>319355</v>
+        <v>323659</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.4166497321802913</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3796777911674573</v>
+        <v>0.3819114809901863</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.454457753464103</v>
+        <v>0.4605832204466322</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>278</v>
@@ -3297,19 +3297,19 @@
         <v>303537</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>278400</v>
+        <v>279897</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>330936</v>
+        <v>331195</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4354595148178418</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3993979558053112</v>
+        <v>0.4015455991121707</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4747671267138561</v>
+        <v>0.475138067549266</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>555</v>
@@ -3318,19 +3318,19 @@
         <v>596323</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>556410</v>
+        <v>553825</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>635615</v>
+        <v>630839</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4260165515137959</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3975018859351765</v>
+        <v>0.3956556710505791</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4540865429095661</v>
+        <v>0.450674862850471</v>
       </c>
     </row>
     <row r="7">
@@ -3347,19 +3347,19 @@
         <v>181925</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>158343</v>
+        <v>158067</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204538</v>
+        <v>204636</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2588879469446196</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2253302122224665</v>
+        <v>0.2249376598778292</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2910682896014274</v>
+        <v>0.2912078890583835</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -3368,19 +3368,19 @@
         <v>136761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>116861</v>
+        <v>116844</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>158251</v>
+        <v>159651</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1962001668450821</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1676513525572673</v>
+        <v>0.1676268668552356</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2270289770300754</v>
+        <v>0.2290382863623335</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -3389,19 +3389,19 @@
         <v>318686</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>288361</v>
+        <v>287865</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>350475</v>
+        <v>352471</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2276709402452111</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2060065466208153</v>
+        <v>0.2056521449767998</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2503810558140085</v>
+        <v>0.2518067756911367</v>
       </c>
     </row>
     <row r="8">
@@ -3418,19 +3418,19 @@
         <v>100697</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>84366</v>
+        <v>81694</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>120839</v>
+        <v>119194</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1432972539432702</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1200566713118582</v>
+        <v>0.1162549229081754</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1719604397577789</v>
+        <v>0.1696183216753695</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>61</v>
@@ -3439,19 +3439,19 @@
         <v>63772</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>49518</v>
+        <v>50321</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>80404</v>
+        <v>81540</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.09148844375183515</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.07103954772947195</v>
+        <v>0.07219174182002844</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1153482912924261</v>
+        <v>0.1169785331281002</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>159</v>
@@ -3460,19 +3460,19 @@
         <v>164469</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>142568</v>
+        <v>141815</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>192133</v>
+        <v>188987</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.117497712593004</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1018511370235608</v>
+        <v>0.1013130637097079</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1372611498328758</v>
+        <v>0.1350129862929529</v>
       </c>
     </row>
     <row r="9">
@@ -3564,19 +3564,19 @@
         <v>30206</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>21033</v>
+        <v>20767</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43088</v>
+        <v>42106</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02973154372492872</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02070262764592862</v>
+        <v>0.02044138566847801</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04241150419835318</v>
+        <v>0.04144502845739717</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>51</v>
@@ -3585,19 +3585,19 @@
         <v>55530</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42935</v>
+        <v>41310</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>70779</v>
+        <v>70044</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.05395084339707366</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04171468354694517</v>
+        <v>0.04013566661194996</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06876630029668707</v>
+        <v>0.06805218115920493</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>79</v>
@@ -3606,19 +3606,19 @@
         <v>85735</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>67635</v>
+        <v>67897</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>105964</v>
+        <v>105977</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.04192000052822391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03307000787912275</v>
+        <v>0.03319785032472716</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05181090133659697</v>
+        <v>0.05181712128635573</v>
       </c>
     </row>
     <row r="11">
@@ -3635,19 +3635,19 @@
         <v>148456</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>128266</v>
+        <v>126190</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>171168</v>
+        <v>173889</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.14612514605885</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1262522621471999</v>
+        <v>0.1242081686930621</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1684806691916116</v>
+        <v>0.1711582331143784</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>202</v>
@@ -3656,19 +3656,19 @@
         <v>225441</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>198742</v>
+        <v>199250</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>251530</v>
+        <v>254328</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.219031723688376</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1930913128372751</v>
+        <v>0.1935849175073638</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2443786675470412</v>
+        <v>0.2470967178013531</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>336</v>
@@ -3677,19 +3677,19 @@
         <v>373898</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>340315</v>
+        <v>339897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>415888</v>
+        <v>409664</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1828156649484438</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1663957067064376</v>
+        <v>0.1661914616578177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.203346537273818</v>
+        <v>0.2003037779920967</v>
       </c>
     </row>
     <row r="12">
@@ -3706,19 +3706,19 @@
         <v>417507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>386694</v>
+        <v>384229</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>450425</v>
+        <v>449206</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.4109511907025479</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.380621509148722</v>
+        <v>0.3781953808724601</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4433523679547441</v>
+        <v>0.442152268399409</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>419</v>
@@ -3727,19 +3727,19 @@
         <v>455898</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>424354</v>
+        <v>419207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>491122</v>
+        <v>486511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4429366313882367</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4122890497868467</v>
+        <v>0.407288688879102</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4771587589120826</v>
+        <v>0.4726793340453014</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>802</v>
@@ -3748,19 +3748,19 @@
         <v>873405</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>828660</v>
+        <v>825851</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>921513</v>
+        <v>919983</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4270479881908855</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4051699054068691</v>
+        <v>0.4037966551164852</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4505700883805118</v>
+        <v>0.4498217148923739</v>
       </c>
     </row>
     <row r="13">
@@ -3777,19 +3777,19 @@
         <v>297121</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>269528</v>
+        <v>271600</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>325357</v>
+        <v>331695</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2924553937007466</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2652953314492367</v>
+        <v>0.267335314848545</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3202480353154835</v>
+        <v>0.3264861320144511</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>200</v>
@@ -3798,19 +3798,19 @@
         <v>220009</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>194074</v>
+        <v>194617</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>249124</v>
+        <v>248054</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2137536483693818</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1885560227886307</v>
+        <v>0.1890835427782581</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2420407105470002</v>
+        <v>0.2410011196024997</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>476</v>
@@ -3819,19 +3819,19 @@
         <v>517130</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>479500</v>
+        <v>477601</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>560934</v>
+        <v>557525</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2528484341147709</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2344498017175191</v>
+        <v>0.2335208242933911</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2742662613214489</v>
+        <v>0.27259950691073</v>
       </c>
     </row>
     <row r="14">
@@ -3848,19 +3848,19 @@
         <v>122663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>101711</v>
+        <v>102243</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>144785</v>
+        <v>145376</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1207367258129267</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1001134250454062</v>
+        <v>0.1006371699527818</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1425117370380486</v>
+        <v>0.1430927811112192</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>66</v>
@@ -3869,19 +3869,19 @@
         <v>72385</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>56727</v>
+        <v>56620</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89495</v>
+        <v>89580</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07032715315693173</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05511390422440154</v>
+        <v>0.0550098435098405</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.08695026680178169</v>
+        <v>0.08703319664244488</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>179</v>
@@ -3890,19 +3890,19 @@
         <v>195048</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>167037</v>
+        <v>168150</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>222586</v>
+        <v>224287</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.09536791221767586</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08167228648938961</v>
+        <v>0.08221603334742648</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1088324901226003</v>
+        <v>0.1096642176223431</v>
       </c>
     </row>
     <row r="15">
@@ -3994,19 +3994,19 @@
         <v>16974</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9442</v>
+        <v>9403</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>28564</v>
+        <v>27728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02250223315752859</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01251765647763653</v>
+        <v>0.0124646677787813</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03786719899382957</v>
+        <v>0.03675847564475222</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -4015,19 +4015,19 @@
         <v>43097</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>31568</v>
+        <v>29969</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>59168</v>
+        <v>57670</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.05545294776961289</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04061930013685405</v>
+        <v>0.03856123850507748</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.07613272511261833</v>
+        <v>0.07420471456658849</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -4036,19 +4036,19 @@
         <v>60071</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>44334</v>
+        <v>46082</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>77693</v>
+        <v>78004</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03922330602496254</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02894816391511723</v>
+        <v>0.03008924522732871</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.05072979605406856</v>
+        <v>0.0509329942792194</v>
       </c>
     </row>
     <row r="17">
@@ -4065,19 +4065,19 @@
         <v>106225</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>86157</v>
+        <v>88159</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>128643</v>
+        <v>126334</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.140819544396153</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1142167340173125</v>
+        <v>0.1168695217006155</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1705386934349562</v>
+        <v>0.1674784192977178</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>157</v>
@@ -4086,19 +4086,19 @@
         <v>172024</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>149590</v>
+        <v>147747</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>198786</v>
+        <v>195749</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2213458133792019</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1924790311017132</v>
+        <v>0.1901083901709065</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2557800322893036</v>
+        <v>0.2518730469361447</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>251</v>
@@ -4107,19 +4107,19 @@
         <v>278249</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248943</v>
+        <v>245183</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>309504</v>
+        <v>310087</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1816831683648526</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1625478671857322</v>
+        <v>0.1600927533415422</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2020913999816457</v>
+        <v>0.2024716607460676</v>
       </c>
     </row>
     <row r="18">
@@ -4136,19 +4136,19 @@
         <v>301433</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>271459</v>
+        <v>273888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>332442</v>
+        <v>326982</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3996017896743059</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3598662536888568</v>
+        <v>0.3630860695593622</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4407104559331211</v>
+        <v>0.4334712015031453</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>279</v>
@@ -4157,19 +4157,19 @@
         <v>309896</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>280567</v>
+        <v>280780</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>336681</v>
+        <v>338084</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3987477616734857</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3610088952297483</v>
+        <v>0.3612827192436008</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4332113108714189</v>
+        <v>0.435016638860137</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>549</v>
@@ -4178,19 +4178,19 @@
         <v>611329</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>570881</v>
+        <v>571506</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>650347</v>
+        <v>650784</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.399168407133118</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3727575368040119</v>
+        <v>0.3731660726377553</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4246452704311457</v>
+        <v>0.4249302219106607</v>
       </c>
     </row>
     <row r="19">
@@ -4207,19 +4207,19 @@
         <v>240938</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>214158</v>
+        <v>214708</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>270526</v>
+        <v>268227</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3194056495044524</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2839041537361989</v>
+        <v>0.2846327693369552</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3586288267098011</v>
+        <v>0.355581513667404</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>187</v>
@@ -4228,19 +4228,19 @@
         <v>206184</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>182102</v>
+        <v>182472</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>236548</v>
+        <v>235043</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2653001710977668</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2343129556261905</v>
+        <v>0.234789160790027</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3043695795934597</v>
+        <v>0.3024324809021574</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>415</v>
@@ -4249,19 +4249,19 @@
         <v>447123</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>413374</v>
+        <v>409958</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>482622</v>
+        <v>484661</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2919494423290919</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2699129685320103</v>
+        <v>0.2676824939599671</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3151285027170119</v>
+        <v>0.3164602532871363</v>
       </c>
     </row>
     <row r="20">
@@ -4278,19 +4278,19 @@
         <v>88763</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>70258</v>
+        <v>71249</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>108127</v>
+        <v>108874</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.11767078326756</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.09313897609142971</v>
+        <v>0.09445232850601495</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1433414875174468</v>
+        <v>0.1443313728272244</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>44</v>
@@ -4299,19 +4299,19 @@
         <v>45972</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>33976</v>
+        <v>33772</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>60290</v>
+        <v>60830</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.0591533060799327</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04371724735268796</v>
+        <v>0.04345428990881747</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07757653477155155</v>
+        <v>0.07827014453213067</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>124</v>
@@ -4320,19 +4320,19 @@
         <v>134735</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>113144</v>
+        <v>112522</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>158919</v>
+        <v>158198</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.08797567614797495</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.07387751599200454</v>
+        <v>0.07347127328069022</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1037664065463327</v>
+        <v>0.1032957941035557</v>
       </c>
     </row>
     <row r="21">
@@ -4424,19 +4424,19 @@
         <v>25593</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>16117</v>
+        <v>15802</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>38876</v>
+        <v>38322</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02703271879985097</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01702387309722325</v>
+        <v>0.0166909991968996</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04106255259012395</v>
+        <v>0.04047719270994102</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>55</v>
@@ -4445,19 +4445,19 @@
         <v>58418</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45837</v>
+        <v>44749</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>74545</v>
+        <v>74653</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05563793947535953</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04365573893741511</v>
+        <v>0.0426193630218392</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0709975781286012</v>
+        <v>0.07110040026232586</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>77</v>
@@ -4466,19 +4466,19 @@
         <v>84012</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>65166</v>
+        <v>67754</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>104053</v>
+        <v>105817</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04207467160474385</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03263665277246929</v>
+        <v>0.0339326325365082</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05211164177412968</v>
+        <v>0.05299555492431728</v>
       </c>
     </row>
     <row r="23">
@@ -4495,19 +4495,19 @@
         <v>115277</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>96096</v>
+        <v>95059</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>135309</v>
+        <v>136785</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1217602188643293</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1015006245582166</v>
+        <v>0.100405012379506</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1429188122949885</v>
+        <v>0.1444774731045194</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>194</v>
@@ -4516,19 +4516,19 @@
         <v>200853</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>176034</v>
+        <v>174962</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>227711</v>
+        <v>228249</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1912942526146807</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1676558940718382</v>
+        <v>0.1666354838325576</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2168734282213066</v>
+        <v>0.2173857817092298</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>301</v>
@@ -4537,19 +4537,19 @@
         <v>316130</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>282573</v>
+        <v>283996</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>349193</v>
+        <v>349758</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1583244413841061</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1415182608907478</v>
+        <v>0.1422308619673038</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1748831976333756</v>
+        <v>0.1751660005406689</v>
       </c>
     </row>
     <row r="24">
@@ -4566,19 +4566,19 @@
         <v>416436</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>383247</v>
+        <v>385400</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>445700</v>
+        <v>446707</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4398563672490843</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4048006001871557</v>
+        <v>0.407074773092456</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.470766717509306</v>
+        <v>0.4718305242922461</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>468</v>
@@ -4587,19 +4587,19 @@
         <v>498151</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>462179</v>
+        <v>461909</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>527804</v>
+        <v>529746</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4744428577009022</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4401830375580644</v>
+        <v>0.439925595606537</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5026845023863766</v>
+        <v>0.504534575386008</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>867</v>
@@ -4608,19 +4608,19 @@
         <v>914587</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>868416</v>
+        <v>872177</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>963846</v>
+        <v>961228</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4580435493360435</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4349203102930684</v>
+        <v>0.4368040579602433</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4827134520441485</v>
+        <v>0.4814025789254254</v>
       </c>
     </row>
     <row r="25">
@@ -4637,19 +4637,19 @@
         <v>301705</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>275173</v>
+        <v>275157</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>335846</v>
+        <v>329888</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.318673136090001</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2906485926164549</v>
+        <v>0.2906323044853384</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3547343291217651</v>
+        <v>0.3484407141125401</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>230</v>
@@ -4658,19 +4658,19 @@
         <v>237683</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>210686</v>
+        <v>212158</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>265942</v>
+        <v>268338</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2263713388261783</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2006591698533927</v>
+        <v>0.2020610675533667</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2532848875548553</v>
+        <v>0.2555673467313239</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>523</v>
@@ -4679,19 +4679,19 @@
         <v>539388</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>500137</v>
+        <v>498781</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>581692</v>
+        <v>579117</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2701365666994371</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2504785623082218</v>
+        <v>0.2497998907541643</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2913234372634954</v>
+        <v>0.2900334699643315</v>
       </c>
     </row>
     <row r="26">
@@ -4708,19 +4708,19 @@
         <v>87743</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>72368</v>
+        <v>71056</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>109818</v>
+        <v>106983</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.09267755899673449</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.07643850762346843</v>
+        <v>0.07505172557380477</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1159938073127335</v>
+        <v>0.112999625867659</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>54</v>
@@ -4729,19 +4729,19 @@
         <v>54865</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>40349</v>
+        <v>42381</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>70040</v>
+        <v>71096</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.05225361138287932</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.03842915189098526</v>
+        <v>0.04036393118956992</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.06670629010920785</v>
+        <v>0.06771224294614336</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>142</v>
@@ -4750,19 +4750,19 @@
         <v>142608</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>120458</v>
+        <v>120103</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165577</v>
+        <v>165887</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.07142077097566948</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.06032792743723528</v>
+        <v>0.0601501228799852</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.08292455949860854</v>
+        <v>0.08307978761844514</v>
       </c>
     </row>
     <row r="27">
@@ -4854,19 +4854,19 @@
         <v>102242</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>81645</v>
+        <v>81747</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>125889</v>
+        <v>125119</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02989749775159944</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02387447002953167</v>
+        <v>0.02390426013024227</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03681233631276649</v>
+        <v>0.0365870660380736</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>187</v>
@@ -4875,19 +4875,19 @@
         <v>202334</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>178068</v>
+        <v>177559</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>233642</v>
+        <v>232197</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05694004672342896</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.05011125119514351</v>
+        <v>0.04996796926807676</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.06575051282484905</v>
+        <v>0.065344054143887</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>279</v>
@@ -4896,19 +4896,19 @@
         <v>304576</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>269887</v>
+        <v>271631</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>339569</v>
+        <v>338082</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04367802221669479</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03870338854913025</v>
+        <v>0.03895353749597885</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04869620497885232</v>
+        <v>0.04848293504057116</v>
       </c>
     </row>
     <row r="29">
@@ -4925,19 +4925,19 @@
         <v>467797</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>429658</v>
+        <v>425663</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>514686</v>
+        <v>511949</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1367924802162218</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1256399490092936</v>
+        <v>0.1244717295589702</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1505036005776587</v>
+        <v>0.1497032499226413</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>691</v>
@@ -4946,19 +4946,19 @@
         <v>746009</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>701583</v>
+        <v>700725</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>797781</v>
+        <v>799929</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2099388406994164</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1974366292568964</v>
+        <v>0.1971952972563796</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2245083067245099</v>
+        <v>0.2251128192751144</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1117</v>
@@ -4967,19 +4967,19 @@
         <v>1213806</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1145684</v>
+        <v>1155117</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1282893</v>
+        <v>1284179</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1740668958499472</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1642978581312128</v>
+        <v>0.1656506267254106</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1839743980384684</v>
+        <v>0.1841588029311791</v>
       </c>
     </row>
     <row r="30">
@@ -4996,19 +4996,19 @@
         <v>1428162</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1367216</v>
+        <v>1368153</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1489358</v>
+        <v>1487661</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4176210560048199</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3997992560821946</v>
+        <v>0.4000731828150765</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.43551586776104</v>
+        <v>0.4350195939736783</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1444</v>
@@ -5017,19 +5017,19 @@
         <v>1567482</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1506536</v>
+        <v>1507387</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1625918</v>
+        <v>1629520</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4411148068640519</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4239633514330582</v>
+        <v>0.4242029564524606</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4575595584034287</v>
+        <v>0.4585732398478888</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2773</v>
@@ -5038,19 +5038,19 @@
         <v>2995645</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2917442</v>
+        <v>2908516</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3087304</v>
+        <v>3077743</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4295931599965613</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4183785027971141</v>
+        <v>0.4170984448221337</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4427376847416706</v>
+        <v>0.44136660946408</v>
       </c>
     </row>
     <row r="31">
@@ -5067,19 +5067,19 @@
         <v>1021689</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>967169</v>
+        <v>964008</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1077881</v>
+        <v>1078162</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2987607591776411</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2828181573225789</v>
+        <v>0.2818937346579765</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.31519224662288</v>
+        <v>0.3152744348298455</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>747</v>
@@ -5088,19 +5088,19 @@
         <v>800638</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>748762</v>
+        <v>749419</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>850392</v>
+        <v>852284</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2253122966524618</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2107137432337941</v>
+        <v>0.2108985726661034</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2393140622804422</v>
+        <v>0.2398463215451813</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1723</v>
@@ -5109,19 +5109,19 @@
         <v>1822326</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1749853</v>
+        <v>1750293</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1897148</v>
+        <v>1897311</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2613323963481516</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2509392283308081</v>
+        <v>0.2510023338329174</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2720622895124208</v>
+        <v>0.2720856477989288</v>
       </c>
     </row>
     <row r="32">
@@ -5138,19 +5138,19 @@
         <v>399866</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>361425</v>
+        <v>361006</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>439000</v>
+        <v>440102</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1169282068497178</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.105687461824919</v>
+        <v>0.1055648239906649</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.128371646562073</v>
+        <v>0.1286939553625029</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>225</v>
@@ -5159,19 +5159,19 @@
         <v>236994</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>208892</v>
+        <v>209147</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>269086</v>
+        <v>267706</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.06669400906064096</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.05878554787612036</v>
+        <v>0.0588574187313873</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.07572513106838241</v>
+        <v>0.07533664675744815</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>604</v>
@@ -5180,19 +5180,19 @@
         <v>636860</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>589847</v>
+        <v>586710</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>688428</v>
+        <v>688112</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09132952558864514</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08458760795478448</v>
+        <v>0.08413774723437097</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09872465507835433</v>
+        <v>0.09867936236126754</v>
       </c>
     </row>
     <row r="33">
@@ -5524,19 +5524,19 @@
         <v>21869</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14878</v>
+        <v>14388</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32758</v>
+        <v>32238</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03240815042247941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02204855710438115</v>
+        <v>0.02132251556759937</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04854415773986567</v>
+        <v>0.04777343208597633</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>40</v>
@@ -5545,19 +5545,19 @@
         <v>42931</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>30593</v>
+        <v>31350</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>57437</v>
+        <v>56592</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06380578066763688</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04546810643077741</v>
+        <v>0.04659353865086453</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.08536524050546405</v>
+        <v>0.08410910082169966</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -5566,19 +5566,19 @@
         <v>64800</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>49610</v>
+        <v>49765</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81501</v>
+        <v>81712</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04808412158826671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03681256214000124</v>
+        <v>0.03692760229761852</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06047708017326946</v>
+        <v>0.06063334425232074</v>
       </c>
     </row>
     <row r="5">
@@ -5595,19 +5595,19 @@
         <v>90613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>73119</v>
+        <v>74060</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>109320</v>
+        <v>110117</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1342812794117822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1083561785863962</v>
+        <v>0.1097512509912387</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1620037080824415</v>
+        <v>0.1631843802919507</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>132</v>
@@ -5616,19 +5616,19 @@
         <v>139508</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>119381</v>
+        <v>119899</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>162704</v>
+        <v>163788</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2073422281425505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1774289216068353</v>
+        <v>0.1781992046751924</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2418170163883175</v>
+        <v>0.2434276833638531</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>219</v>
@@ -5637,19 +5637,19 @@
         <v>230121</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>203879</v>
+        <v>200183</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>260682</v>
+        <v>257186</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1707585968623637</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1512859528924297</v>
+        <v>0.1485437709468501</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1934360833821553</v>
+        <v>0.19084225603992</v>
       </c>
     </row>
     <row r="6">
@@ -5666,19 +5666,19 @@
         <v>219707</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>194816</v>
+        <v>195746</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>246270</v>
+        <v>243494</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3255883412982749</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2887015609670135</v>
+        <v>0.2900792903497414</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3649523529256598</v>
+        <v>0.3608389232206199</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>198</v>
@@ -5687,19 +5687,19 @@
         <v>204882</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>180297</v>
+        <v>180439</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>228777</v>
+        <v>229177</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3045032645684364</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2679650883986456</v>
+        <v>0.2681758278371884</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3400178102707282</v>
+        <v>0.3406123493495972</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>410</v>
@@ -5708,19 +5708,19 @@
         <v>424589</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>392277</v>
+        <v>392424</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>459498</v>
+        <v>458865</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3150611437911847</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2910846371882125</v>
+        <v>0.2911935683984085</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3409654430654217</v>
+        <v>0.3404951504740781</v>
       </c>
     </row>
     <row r="7">
@@ -5737,19 +5737,19 @@
         <v>208353</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>184369</v>
+        <v>185015</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>233441</v>
+        <v>233031</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3087632662520116</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2732205366823569</v>
+        <v>0.2741768867228485</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3459411070242526</v>
+        <v>0.3453336093979765</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>190</v>
@@ -5758,19 +5758,19 @@
         <v>184770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>162409</v>
+        <v>162690</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>208139</v>
+        <v>208702</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.274612400598313</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2413786446256943</v>
+        <v>0.2417960656150811</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3093438545248908</v>
+        <v>0.3101809091657817</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>391</v>
@@ -5779,19 +5779,19 @@
         <v>393123</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>359787</v>
+        <v>362459</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>427494</v>
+        <v>427845</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2917126805519452</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2669756140507537</v>
+        <v>0.2689585210416168</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.317216684613511</v>
+        <v>0.3174773557865194</v>
       </c>
     </row>
     <row r="8">
@@ -5808,19 +5808,19 @@
         <v>134258</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>115477</v>
+        <v>113020</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>156901</v>
+        <v>155198</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.198958962615452</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1711284025315293</v>
+        <v>0.1674873141530649</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.232514142915417</v>
+        <v>0.2299910649727379</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>106</v>
@@ -5829,19 +5829,19 @@
         <v>100748</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>83588</v>
+        <v>83788</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>119189</v>
+        <v>119636</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1497363260230632</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1242313410078267</v>
+        <v>0.124528732072968</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.1771432542612701</v>
+        <v>0.1778084721474064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>235</v>
@@ -5850,19 +5850,19 @@
         <v>235006</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>208488</v>
+        <v>209543</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>263809</v>
+        <v>263619</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1743834572062397</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1547061063642512</v>
+        <v>0.1554890501480601</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1957565090668277</v>
+        <v>0.1956150988880327</v>
       </c>
     </row>
     <row r="9">
@@ -5954,19 +5954,19 @@
         <v>25322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>16619</v>
+        <v>16963</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>36560</v>
+        <v>37396</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02479109367672828</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0162701701362491</v>
+        <v>0.01660783961229674</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03579392325147808</v>
+        <v>0.03661178182690144</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>42</v>
@@ -5975,19 +5975,19 @@
         <v>49130</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>35809</v>
+        <v>36763</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>65433</v>
+        <v>64069</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.04725301132190164</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.03444074941908853</v>
+        <v>0.0353583423242218</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06293353450248972</v>
+        <v>0.06162168984481657</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>67</v>
@@ -5996,19 +5996,19 @@
         <v>74452</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59564</v>
+        <v>56285</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>95462</v>
+        <v>93946</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.03612181251830094</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.0288985301099576</v>
+        <v>0.02730796504423036</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04631547939565531</v>
+        <v>0.04557972975745345</v>
       </c>
     </row>
     <row r="11">
@@ -6025,19 +6025,19 @@
         <v>133967</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>112710</v>
+        <v>113776</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>154412</v>
+        <v>155379</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1311586544774312</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1103473243077305</v>
+        <v>0.1113908835883875</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1511750451263429</v>
+        <v>0.1521218540025136</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>175</v>
@@ -6046,19 +6046,19 @@
         <v>200975</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>174166</v>
+        <v>175952</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231007</v>
+        <v>230682</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1932969516404521</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1675130172337845</v>
+        <v>0.1692302027143768</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2221823145042577</v>
+        <v>0.2218692835318954</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>306</v>
@@ -6067,19 +6067,19 @@
         <v>334941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>299271</v>
+        <v>299327</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>371456</v>
+        <v>370797</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1625037776129696</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1451973246985562</v>
+        <v>0.1452247079461853</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1802193552220131</v>
+        <v>0.1798997169256672</v>
       </c>
     </row>
     <row r="12">
@@ -6096,19 +6096,19 @@
         <v>293640</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>266321</v>
+        <v>264596</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>323729</v>
+        <v>324903</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.287484231538944</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2607384905365744</v>
+        <v>0.259049277633648</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3169428830909296</v>
+        <v>0.3180926055922792</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>296</v>
@@ -6117,19 +6117,19 @@
         <v>314857</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>285910</v>
+        <v>286800</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>343929</v>
+        <v>346485</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3028289026677924</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2749874498551315</v>
+        <v>0.2758433120840447</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3307902555831959</v>
+        <v>0.3332482393776466</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>563</v>
@@ -6138,19 +6138,19 @@
         <v>608497</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>564840</v>
+        <v>562539</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>651934</v>
+        <v>652976</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2952247173257726</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2740438854184606</v>
+        <v>0.2729276761537737</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3162994213065039</v>
+        <v>0.316804788002828</v>
       </c>
     </row>
     <row r="13">
@@ -6167,19 +6167,19 @@
         <v>395448</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>367167</v>
+        <v>360069</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>427435</v>
+        <v>429869</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3871590266375756</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3594707706264762</v>
+        <v>0.3525210087638455</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4184748009732151</v>
+        <v>0.4208578531781793</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>333</v>
@@ -6188,19 +6188,19 @@
         <v>342510</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>314856</v>
+        <v>312254</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>374240</v>
+        <v>372280</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3294253375938669</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.302828349889312</v>
+        <v>0.3003252094617582</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3599430583480737</v>
+        <v>0.358058446415002</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>696</v>
@@ -6209,19 +6209,19 @@
         <v>737958</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>691210</v>
+        <v>692212</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>780491</v>
+        <v>785200</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3580357697289379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3353547851742033</v>
+        <v>0.3358409518463865</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3786715776187075</v>
+        <v>0.3809560930308956</v>
       </c>
     </row>
     <row r="14">
@@ -6238,19 +6238,19 @@
         <v>173034</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>149755</v>
+        <v>148693</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>196585</v>
+        <v>196151</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1694069936693209</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1466153704188599</v>
+        <v>0.1455756191244598</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1924639091392098</v>
+        <v>0.1920396748267258</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>129</v>
@@ -6259,19 +6259,19 @@
         <v>132248</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>110303</v>
+        <v>110174</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>152674</v>
+        <v>153632</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1271957967759869</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1060889578993384</v>
+        <v>0.1059648857362184</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1468419476147266</v>
+        <v>0.1477634753591456</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>293</v>
@@ -6280,19 +6280,19 @@
         <v>305282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>270415</v>
+        <v>275030</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>336033</v>
+        <v>340587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.148113922814019</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1311972383142046</v>
+        <v>0.1334364146798548</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1630331591717195</v>
+        <v>0.1652429839749507</v>
       </c>
     </row>
     <row r="15">
@@ -6384,19 +6384,19 @@
         <v>22198</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>13400</v>
+        <v>13498</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33119</v>
+        <v>33480</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02922488501155321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01764148434093864</v>
+        <v>0.0177716060508167</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04360372989600933</v>
+        <v>0.04407889352971679</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>31</v>
@@ -6405,19 +6405,19 @@
         <v>36049</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>25158</v>
+        <v>25140</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51300</v>
+        <v>50275</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04598140206622287</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0320891022807554</v>
+        <v>0.03206642512453076</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.06543483488643266</v>
+        <v>0.06412654631970788</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>52</v>
@@ -6426,19 +6426,19 @@
         <v>58247</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43852</v>
+        <v>43808</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75039</v>
+        <v>77909</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.03773578544206378</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02841029486042883</v>
+        <v>0.02838175812514791</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04861470956480952</v>
+        <v>0.05047441012374033</v>
       </c>
     </row>
     <row r="17">
@@ -6455,19 +6455,19 @@
         <v>97401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>78330</v>
+        <v>80956</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>119256</v>
+        <v>119369</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1282347988796193</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1031263499033905</v>
+        <v>0.1065836739315654</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1570088902376343</v>
+        <v>0.1571573515118879</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>121</v>
@@ -6476,19 +6476,19 @@
         <v>136688</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>116748</v>
+        <v>115324</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>160636</v>
+        <v>162158</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1743490969272179</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.14891494621356</v>
+        <v>0.147098827868246</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2048958959020584</v>
+        <v>0.2068366427837621</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>210</v>
@@ -6497,19 +6497,19 @@
         <v>234089</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>204012</v>
+        <v>207013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263972</v>
+        <v>262969</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1516569812953037</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1321713436567543</v>
+        <v>0.1341157130438337</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1710170242534713</v>
+        <v>0.1703671987034909</v>
       </c>
     </row>
     <row r="18">
@@ -6526,19 +6526,19 @@
         <v>234676</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>209182</v>
+        <v>211345</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>266274</v>
+        <v>264363</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.30896579326754</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2754014705875303</v>
+        <v>0.2782502020389765</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3505671115352562</v>
+        <v>0.3480518418967375</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>223</v>
@@ -6547,19 +6547,19 @@
         <v>244443</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>219448</v>
+        <v>217692</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>271678</v>
+        <v>270070</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3117941964578571</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2799119035969472</v>
+        <v>0.2776725311421334</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3465330747913266</v>
+        <v>0.3444817662990665</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>438</v>
@@ -6568,19 +6568,19 @@
         <v>479119</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>444479</v>
+        <v>444360</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>522660</v>
+        <v>516224</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3104023840490007</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2879605552984142</v>
+        <v>0.2878833444842653</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3386107676954367</v>
+        <v>0.334440985309751</v>
       </c>
     </row>
     <row r="19">
@@ -6597,19 +6597,19 @@
         <v>246315</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>218524</v>
+        <v>218390</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>271221</v>
+        <v>272270</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3242904466857143</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2877014915150543</v>
+        <v>0.2875250258774092</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3570803839068169</v>
+        <v>0.3584607140164819</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>226</v>
@@ -6618,19 +6618,19 @@
         <v>230193</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>206097</v>
+        <v>204140</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>253974</v>
+        <v>256906</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2936174940365534</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2628819962632669</v>
+        <v>0.2603863168314872</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.323950380117295</v>
+        <v>0.3276913065629615</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>451</v>
@@ -6639,19 +6639,19 @@
         <v>476509</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>437310</v>
+        <v>439179</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>512186</v>
+        <v>511997</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3087111681843969</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2833157100739926</v>
+        <v>0.2845269134091604</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3318253590611768</v>
+        <v>0.3317026188225173</v>
       </c>
     </row>
     <row r="20">
@@ -6668,19 +6668,19 @@
         <v>158962</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135702</v>
+        <v>138116</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>182507</v>
+        <v>184511</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2092840761555731</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1786609702822416</v>
+        <v>0.1818392120938273</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2402825263360437</v>
+        <v>0.2429209006066307</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>134</v>
@@ -6689,19 +6689,19 @@
         <v>136616</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>115938</v>
+        <v>117177</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>159164</v>
+        <v>159054</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1742578105121487</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1478816906792917</v>
+        <v>0.1494623832222441</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2030181138120058</v>
+        <v>0.2028773775184714</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>280</v>
@@ -6710,19 +6710,19 @@
         <v>295579</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>262733</v>
+        <v>264401</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>326681</v>
+        <v>330615</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1914936810292349</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1702143419333301</v>
+        <v>0.1712952187635008</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2116434656726492</v>
+        <v>0.2141923830093665</v>
       </c>
     </row>
     <row r="21">
@@ -6814,19 +6814,19 @@
         <v>21741</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>13612</v>
+        <v>13660</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>34621</v>
+        <v>33099</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02328303537711484</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01457727059764099</v>
+        <v>0.01462871896240159</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03707685361142641</v>
+        <v>0.03544684423236316</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>50</v>
@@ -6835,19 +6835,19 @@
         <v>61886</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>45198</v>
+        <v>45914</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>78454</v>
+        <v>80221</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.05934834980903939</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0433439530301923</v>
+        <v>0.04403132122705539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.07523649622682914</v>
+        <v>0.07693097280076666</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>70</v>
@@ -6856,19 +6856,19 @@
         <v>83627</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>64622</v>
+        <v>67086</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>103790</v>
+        <v>108588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.04231025469659138</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.03269462287106891</v>
+        <v>0.03394126532264324</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05251163781203973</v>
+        <v>0.0549388389568554</v>
       </c>
     </row>
     <row r="23">
@@ -6885,19 +6885,19 @@
         <v>118895</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>97663</v>
+        <v>98883</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>139773</v>
+        <v>139264</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1273298323626726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1045920994322902</v>
+        <v>0.1058985525237782</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1496899522455754</v>
+        <v>0.1491443503655965</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>151</v>
@@ -6906,19 +6906,19 @@
         <v>177949</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>151915</v>
+        <v>154701</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>204955</v>
+        <v>205251</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1706509662270655</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.145684462701509</v>
+        <v>0.1483567209637171</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1965494763724952</v>
+        <v>0.1968338441544541</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>271</v>
@@ -6927,19 +6927,19 @@
         <v>296843</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>265240</v>
+        <v>264115</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>328057</v>
+        <v>332155</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1501850529032306</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1341953570258546</v>
+        <v>0.1336265486491969</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1659770151143448</v>
+        <v>0.1680503512430754</v>
       </c>
     </row>
     <row r="24">
@@ -6956,19 +6956,19 @@
         <v>312179</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>283180</v>
+        <v>281615</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>341283</v>
+        <v>340607</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3343272946765199</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3032705724816321</v>
+        <v>0.3015948378079932</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3654957324396018</v>
+        <v>0.3647723842096905</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>335</v>
@@ -6977,19 +6977,19 @@
         <v>366877</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>333883</v>
+        <v>332181</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>398949</v>
+        <v>398053</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3518306527935284</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3201899730915942</v>
+        <v>0.318558247430852</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3825872417189038</v>
+        <v>0.3817280783387066</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>646</v>
@@ -6998,19 +6998,19 @@
         <v>679056</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>638901</v>
+        <v>641188</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>725683</v>
+        <v>724845</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3435616584680319</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3232458359036262</v>
+        <v>0.3244027516273691</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3671523418811095</v>
+        <v>0.3667284204579914</v>
       </c>
     </row>
     <row r="25">
@@ -7027,19 +7027,19 @@
         <v>357140</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>327065</v>
+        <v>328316</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>388468</v>
+        <v>388170</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3824778275304654</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3502689241988964</v>
+        <v>0.3516089661087656</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4160289784542162</v>
+        <v>0.4157097743366113</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>310</v>
@@ -7048,19 +7048,19 @@
         <v>321057</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>291775</v>
+        <v>292159</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>352001</v>
+        <v>348618</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3078897157461302</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2798086378255198</v>
+        <v>0.2801772247345511</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3375654329040004</v>
+        <v>0.3343206421231347</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>663</v>
@@ -7069,19 +7069,19 @@
         <v>678196</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>633895</v>
+        <v>636062</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>719929</v>
+        <v>721243</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3431268781792539</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3207131072914405</v>
+        <v>0.3218092661191962</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3642411564048462</v>
+        <v>0.3649060505960181</v>
       </c>
     </row>
     <row r="26">
@@ -7098,19 +7098,19 @@
         <v>123799</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>103762</v>
+        <v>105677</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144356</v>
+        <v>145163</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1325820100532273</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.111123127961221</v>
+        <v>0.1131740970204716</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1545972074321967</v>
+        <v>0.1554621417876496</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>112</v>
@@ -7119,19 +7119,19 @@
         <v>114996</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>95045</v>
+        <v>95815</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138746</v>
+        <v>135367</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1102803154242365</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.0911471021934899</v>
+        <v>0.09188578338505347</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1330562515196007</v>
+        <v>0.1298153300088009</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>236</v>
@@ -7140,19 +7140,19 @@
         <v>238795</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>210719</v>
+        <v>211352</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>268930</v>
+        <v>271444</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1208161557528921</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1066109813574313</v>
+        <v>0.1069313929801106</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.136062508239945</v>
+        <v>0.137334312020894</v>
       </c>
     </row>
     <row r="27">
@@ -7244,19 +7244,19 @@
         <v>91129</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>72793</v>
+        <v>75398</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>113442</v>
+        <v>112906</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.02688564980415946</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02147590364931649</v>
+        <v>0.02224442442151483</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03346835949519924</v>
+        <v>0.03331026257449321</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>163</v>
@@ -7265,19 +7265,19 @@
         <v>189996</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>162753</v>
+        <v>161115</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>220090</v>
+        <v>218746</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05368166575396295</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04598434435852795</v>
+        <v>0.04552154088570568</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.0621842710809451</v>
+        <v>0.06180474219829452</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>252</v>
@@ -7286,19 +7286,19 @@
         <v>281126</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>248644</v>
+        <v>247521</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>318999</v>
+        <v>315608</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04057331191575578</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03588542792537565</v>
+        <v>0.03572336367734294</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.04603931499863242</v>
+        <v>0.04555003787315779</v>
       </c>
     </row>
     <row r="29">
@@ -7315,19 +7315,19 @@
         <v>440876</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>404845</v>
+        <v>401881</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>481256</v>
+        <v>479704</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1300703431974763</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1194404566186229</v>
+        <v>0.1185657622844983</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.141983596106394</v>
+        <v>0.1415258794383709</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>579</v>
@@ -7336,19 +7336,19 @@
         <v>655119</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>603862</v>
+        <v>605747</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>706105</v>
+        <v>705660</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1850978608086243</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1706155309445936</v>
+        <v>0.1711481749462923</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1995035865102155</v>
+        <v>0.1993778552640013</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1006</v>
@@ -7357,19 +7357,19 @@
         <v>1095995</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1030917</v>
+        <v>1034801</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1155039</v>
+        <v>1155624</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1581789272986451</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1487866839088267</v>
+        <v>0.1493472159406081</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1667004398635794</v>
+        <v>0.1667848613647505</v>
       </c>
     </row>
     <row r="30">
@@ -7386,19 +7386,19 @@
         <v>1060201</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1010198</v>
+        <v>1004868</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1113499</v>
+        <v>1112865</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3127883967416346</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2980360620409256</v>
+        <v>0.2964635664944798</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3285125568484753</v>
+        <v>0.3283255566932299</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1052</v>
@@ -7407,19 +7407,19 @@
         <v>1131059</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1074530</v>
+        <v>1073274</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1187993</v>
+        <v>1189030</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3195701704383632</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3035985953618545</v>
+        <v>0.3032436139247697</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3356563903641069</v>
+        <v>0.3359494687748534</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2057</v>
@@ -7428,19 +7428,19 @@
         <v>2191260</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2114415</v>
+        <v>2112673</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2270021</v>
+        <v>2272803</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3162525918313832</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3051619990702328</v>
+        <v>0.3049105812557409</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.327619778055505</v>
+        <v>0.3280211998404007</v>
       </c>
     </row>
     <row r="31">
@@ -7457,19 +7457,19 @@
         <v>1207257</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>1155007</v>
+        <v>1147040</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1264820</v>
+        <v>1259246</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3561739215083088</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3407588164531151</v>
+        <v>0.338408103119876</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3731564647016326</v>
+        <v>0.3715121644044601</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1059</v>
@@ -7478,19 +7478,19 @@
         <v>1078529</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>1022967</v>
+        <v>1029119</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>1130738</v>
+        <v>1132628</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3047284948977196</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2890299299280688</v>
+        <v>0.2907679624748181</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3194794929769952</v>
+        <v>0.3200135027706102</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2201</v>
@@ -7499,19 +7499,19 @@
         <v>2285787</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>2212329</v>
+        <v>2202788</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2369718</v>
+        <v>2363775</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3298951038679634</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3192932822012662</v>
+        <v>0.3179163255602114</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3420084827509358</v>
+        <v>0.3411507681622979</v>
       </c>
     </row>
     <row r="32">
@@ -7528,19 +7528,19 @@
         <v>590053</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>547069</v>
+        <v>547283</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>637537</v>
+        <v>631852</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1740816887484208</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.161400234971178</v>
+        <v>0.161463391829147</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1880908846841247</v>
+        <v>0.186413631755852</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>481</v>
@@ -7549,19 +7549,19 @@
         <v>484609</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>442189</v>
+        <v>445459</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>526757</v>
+        <v>527905</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1369218081013299</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1249364044203879</v>
+        <v>0.1258603870189182</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1488301976969785</v>
+        <v>0.1491548340804852</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1044</v>
@@ -7570,19 +7570,19 @@
         <v>1074662</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>1013758</v>
+        <v>1012152</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1138897</v>
+        <v>1134503</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1551000650862526</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1463101910375836</v>
+        <v>0.1460783921221192</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1643708305264048</v>
+        <v>0.1637366622230679</v>
       </c>
     </row>
     <row r="33">
@@ -7914,19 +7914,19 @@
         <v>26861</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19291</v>
+        <v>19247</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>37130</v>
+        <v>36895</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03888829448671857</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02792857141828408</v>
+        <v>0.02786567551953029</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05375598949706736</v>
+        <v>0.05341637475461311</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>95</v>
@@ -7935,19 +7935,19 @@
         <v>44809</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36351</v>
+        <v>36405</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>54480</v>
+        <v>55364</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06103314790642718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.04951180507659096</v>
+        <v>0.04958526113264713</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07420505321554924</v>
+        <v>0.07540962588153281</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>134</v>
@@ -7956,19 +7956,19 @@
         <v>71670</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>60037</v>
+        <v>60058</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>87027</v>
+        <v>86122</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.05029851662635466</v>
+        <v>0.05029851662635468</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0421344402753942</v>
+        <v>0.04214941067044396</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.06107629708814182</v>
+        <v>0.06044087987949987</v>
       </c>
     </row>
     <row r="5">
@@ -7985,19 +7985,19 @@
         <v>129276</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110828</v>
+        <v>109733</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151042</v>
+        <v>152888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.187163360183491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1604549347123812</v>
+        <v>0.1588699772951419</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2186760981835395</v>
+        <v>0.2213488000108998</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>303</v>
@@ -8006,19 +8006,19 @@
         <v>153258</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>138424</v>
+        <v>137409</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>171757</v>
+        <v>171323</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2087476547160892</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1885419305757028</v>
+        <v>0.1871602344294864</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2339445000654956</v>
+        <v>0.2333525557493174</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>460</v>
@@ -8027,19 +8027,19 @@
         <v>282534</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>257414</v>
+        <v>256888</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>311310</v>
+        <v>307833</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.198284752169093</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1806555219241276</v>
+        <v>0.1802863889721684</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2184804263013977</v>
+        <v>0.2160401729924435</v>
       </c>
     </row>
     <row r="6">
@@ -8056,19 +8056,19 @@
         <v>266507</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>240892</v>
+        <v>238792</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>294424</v>
+        <v>293159</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3858443660295375</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3487605042611376</v>
+        <v>0.3457191271837812</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.426263300177768</v>
+        <v>0.4244319325937329</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>515</v>
@@ -8077,19 +8077,19 @@
         <v>293625</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>271107</v>
+        <v>272842</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>315809</v>
+        <v>315696</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3999357326500446</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3692644802051713</v>
+        <v>0.3716280436321489</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4301520587754324</v>
+        <v>0.4299984895901934</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>811</v>
@@ -8098,19 +8098,19 @@
         <v>560131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>525928</v>
+        <v>521987</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>596560</v>
+        <v>595728</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3931049976690291</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3691010362536721</v>
+        <v>0.3663352930640603</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4186712124109515</v>
+        <v>0.4180876184073831</v>
       </c>
     </row>
     <row r="7">
@@ -8127,19 +8127,19 @@
         <v>194844</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>168155</v>
+        <v>170296</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>222496</v>
+        <v>220957</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2820916365889956</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2434527059608615</v>
+        <v>0.2465522549347854</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3221261405415828</v>
+        <v>0.319898847902685</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>261</v>
@@ -8148,19 +8148,19 @@
         <v>184985</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>165638</v>
+        <v>164879</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>206667</v>
+        <v>205705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2519619515228841</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2256092849923116</v>
+        <v>0.2245759690878119</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.281493498857155</v>
+        <v>0.2801827364691516</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>451</v>
@@ -8169,19 +8169,19 @@
         <v>379829</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>348588</v>
+        <v>350281</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>417857</v>
+        <v>415611</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2665671987846052</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2446419425308884</v>
+        <v>0.2458305253778858</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2932558373558789</v>
+        <v>0.291679245709033</v>
       </c>
     </row>
     <row r="8">
@@ -8198,19 +8198,19 @@
         <v>73224</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54805</v>
+        <v>56673</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>101911</v>
+        <v>103876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1060123427112575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07934648046171987</v>
+        <v>0.08204987563090708</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1475452302997482</v>
+        <v>0.1503896231603198</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>67</v>
@@ -8219,19 +8219,19 @@
         <v>57502</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44370</v>
+        <v>44565</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>72398</v>
+        <v>72102</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.07832151320455476</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.06043493431569706</v>
+        <v>0.06069969960440075</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09861134589860306</v>
+        <v>0.09820684774695704</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>115</v>
@@ -8240,19 +8240,19 @@
         <v>130726</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>107319</v>
+        <v>106369</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>164303</v>
+        <v>163886</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09174453475091807</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.07531773555976488</v>
+        <v>0.07465083630344727</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1153096292256675</v>
+        <v>0.1150166207404384</v>
       </c>
     </row>
     <row r="9">
@@ -8344,19 +8344,19 @@
         <v>32877</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>24198</v>
+        <v>23873</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43183</v>
+        <v>43857</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03134368960626462</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02306907459570487</v>
+        <v>0.02275926184727082</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.04116893714593334</v>
+        <v>0.04181211828976427</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>98</v>
@@ -8365,19 +8365,19 @@
         <v>54739</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>44500</v>
+        <v>44705</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>66459</v>
+        <v>65601</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05111778590411648</v>
+        <v>0.05111778590411649</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.04155608677412682</v>
+        <v>0.04174801719680879</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.06206247584160728</v>
+        <v>0.06126143249298435</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>144</v>
@@ -8386,19 +8386,19 @@
         <v>87616</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>73348</v>
+        <v>71259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>101323</v>
+        <v>103233</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.04133298205109962</v>
+        <v>0.04133298205109963</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03460226750607837</v>
+        <v>0.03361646938622801</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04779944741747234</v>
+        <v>0.04870045366569983</v>
       </c>
     </row>
     <row r="11">
@@ -8415,19 +8415,19 @@
         <v>119564</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>99427</v>
+        <v>100344</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>139882</v>
+        <v>144999</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1139880849919723</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09479045680883842</v>
+        <v>0.09566416596200948</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1333585631572786</v>
+        <v>0.138236870722289</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>339</v>
@@ -8436,19 +8436,19 @@
         <v>209347</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>188555</v>
+        <v>189123</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231373</v>
+        <v>231571</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1954984566962665</v>
+        <v>0.1954984566962666</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1760814600696757</v>
+        <v>0.1766117514044907</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2160670857504632</v>
+        <v>0.2162524944442368</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>470</v>
@@ -8457,19 +8457,19 @@
         <v>328911</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>295879</v>
+        <v>300156</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>360374</v>
+        <v>358358</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.1551647298295851</v>
+        <v>0.155164729829585</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1395816515665985</v>
+        <v>0.1415993872208071</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1700075320330522</v>
+        <v>0.1690564244025305</v>
       </c>
     </row>
     <row r="12">
@@ -8486,19 +8486,19 @@
         <v>406349</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>371428</v>
+        <v>372480</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>440933</v>
+        <v>441380</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3873981711968569</v>
+        <v>0.387398171196857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3541060966746308</v>
+        <v>0.3551094167679275</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4203698681458284</v>
+        <v>0.4207963384435057</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>649</v>
@@ -8507,19 +8507,19 @@
         <v>437169</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>411681</v>
+        <v>407456</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>468919</v>
+        <v>465616</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4082490306521909</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3844477514909092</v>
+        <v>0.380502408898276</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4378994692694896</v>
+        <v>0.4348148992509038</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1066</v>
@@ -8528,19 +8528,19 @@
         <v>843517</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>798790</v>
+        <v>798442</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>885005</v>
+        <v>891452</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3979314127512693</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3768313516644291</v>
+        <v>0.3766671833845064</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4175033814428533</v>
+        <v>0.4205450448497103</v>
       </c>
     </row>
     <row r="13">
@@ -8557,19 +8557,19 @@
         <v>360000</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>325023</v>
+        <v>323514</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>394784</v>
+        <v>397773</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3432107633511342</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.309865276423573</v>
+        <v>0.3084265914754648</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3763730072603307</v>
+        <v>0.3792225137614832</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>334</v>
@@ -8578,19 +8578,19 @@
         <v>281331</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>251904</v>
+        <v>255608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>307428</v>
+        <v>311831</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.262720014342233</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2352401870309705</v>
+        <v>0.2386991245465349</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2870910143404586</v>
+        <v>0.2912029303371311</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>617</v>
@@ -8599,19 +8599,19 @@
         <v>641330</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>596721</v>
+        <v>596566</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>687873</v>
+        <v>693407</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3025492019405592</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2815049002812903</v>
+        <v>0.2814314066409881</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3245057574622979</v>
+        <v>0.3271164952036802</v>
       </c>
     </row>
     <row r="14">
@@ -8628,19 +8628,19 @@
         <v>130128</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>104842</v>
+        <v>104598</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>158472</v>
+        <v>160096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1240592908537719</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09995255209402527</v>
+        <v>0.09972032308670677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1510816629329279</v>
+        <v>0.1526297988310593</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>96</v>
@@ -8649,19 +8649,19 @@
         <v>88253</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>70292</v>
+        <v>73245</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>108415</v>
+        <v>110133</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.08241471240519312</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06564196690765882</v>
+        <v>0.06839993409370035</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1012429328777982</v>
+        <v>0.1028471591068729</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>183</v>
@@ -8670,19 +8670,19 @@
         <v>218381</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187101</v>
+        <v>185622</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>253755</v>
+        <v>255226</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1030216734274869</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08826533519844255</v>
+        <v>0.08756755129908435</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1197096063151484</v>
+        <v>0.120403701695571</v>
       </c>
     </row>
     <row r="15">
@@ -8774,19 +8774,19 @@
         <v>24656</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>15825</v>
+        <v>16391</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>36096</v>
+        <v>35845</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.03070240241845152</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01970610183902113</v>
+        <v>0.02041020474225034</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04494744833066443</v>
+        <v>0.04463429203688189</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>49</v>
@@ -8795,19 +8795,19 @@
         <v>31598</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>23176</v>
+        <v>23657</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>41693</v>
+        <v>42115</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03890112772535143</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02853314795617416</v>
+        <v>0.02912510080799138</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0513292245292732</v>
+        <v>0.05184957372577829</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>74</v>
@@ -8816,19 +8816,19 @@
         <v>56254</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>43717</v>
+        <v>43964</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>72388</v>
+        <v>70262</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.03482507637358436</v>
+        <v>0.03482507637358437</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02706360315407771</v>
+        <v>0.02721668016818348</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04481338112586879</v>
+        <v>0.04349667727276924</v>
       </c>
     </row>
     <row r="17">
@@ -8845,19 +8845,19 @@
         <v>94163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>75030</v>
+        <v>77153</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>114489</v>
+        <v>115549</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1172532130593992</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09342883206494514</v>
+        <v>0.09607164211140563</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1425636978355443</v>
+        <v>0.1438839863634612</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>204</v>
@@ -8866,19 +8866,19 @@
         <v>137391</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>120179</v>
+        <v>119215</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>156151</v>
+        <v>156569</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.1691465855060832</v>
+        <v>0.1691465855060831</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1479565083493269</v>
+        <v>0.1467691051244942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1922429417398631</v>
+        <v>0.1927576806016499</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>299</v>
@@ -8887,19 +8887,19 @@
         <v>231554</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>206202</v>
+        <v>205571</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>257128</v>
+        <v>261833</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1433474468605859</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1276527235128379</v>
+        <v>0.1272624272833307</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1591794394590574</v>
+        <v>0.1620922116047596</v>
       </c>
     </row>
     <row r="18">
@@ -8916,19 +8916,19 @@
         <v>338192</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>306250</v>
+        <v>309454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>370816</v>
+        <v>373189</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4211226660465048</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3813475264796269</v>
+        <v>0.3853375970165935</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4617461678258991</v>
+        <v>0.4647008013641568</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>480</v>
@@ -8937,19 +8937,19 @@
         <v>359261</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>336526</v>
+        <v>333877</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>385078</v>
+        <v>387164</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.4422985889965278</v>
+        <v>0.4422985889965279</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.4143082211153299</v>
+        <v>0.4110475568528469</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4740825750695988</v>
+        <v>0.4766513473668268</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>790</v>
@@ -8958,19 +8958,19 @@
         <v>697453</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>657952</v>
+        <v>652730</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>741635</v>
+        <v>736351</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4317708366771866</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4073168534665447</v>
+        <v>0.404084267884037</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4591224999023389</v>
+        <v>0.4558511408186411</v>
       </c>
     </row>
     <row r="19">
@@ -8987,19 +8987,19 @@
         <v>239177</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210765</v>
+        <v>208978</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>271943</v>
+        <v>268177</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2978267058580039</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2624485342840968</v>
+        <v>0.2602223563202499</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3386284859190645</v>
+        <v>0.3339385901063555</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>253</v>
@@ -9008,19 +9008,19 @@
         <v>215767</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>193355</v>
+        <v>192405</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>240715</v>
+        <v>240146</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2656377121840645</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2380455697051958</v>
+        <v>0.2368765888544299</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2963522048332938</v>
+        <v>0.295652303270697</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>439</v>
@@ -9029,19 +9029,19 @@
         <v>454943</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>417602</v>
+        <v>417451</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>494124</v>
+        <v>495159</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2816406865813483</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2585241001664526</v>
+        <v>0.2584306290470951</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3058959909084462</v>
+        <v>0.3065370663020568</v>
       </c>
     </row>
     <row r="20">
@@ -9058,19 +9058,19 @@
         <v>106885</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>82344</v>
+        <v>82322</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>137634</v>
+        <v>135551</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.1330950126176406</v>
+        <v>0.1330950126176407</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1025360206655785</v>
+        <v>0.1025087612551406</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1713840299524703</v>
+        <v>0.1687906038386448</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>61</v>
@@ -9079,19 +9079,19 @@
         <v>68243</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>51361</v>
+        <v>51425</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>88906</v>
+        <v>88746</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.08401598558797309</v>
+        <v>0.0840159855879731</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.06323227113032162</v>
+        <v>0.06331088254868522</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1094550680834206</v>
+        <v>0.1092587152691498</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>121</v>
@@ -9100,19 +9100,19 @@
         <v>175128</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>142482</v>
+        <v>145277</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>207336</v>
+        <v>215342</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1084159535072948</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.08820627854636992</v>
+        <v>0.08993614640352468</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.128354886612728</v>
+        <v>0.1333114516875517</v>
       </c>
     </row>
     <row r="21">
@@ -9204,19 +9204,19 @@
         <v>36396</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>27136</v>
+        <v>27007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>50073</v>
+        <v>49310</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.03676118041334223</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.02740801388317581</v>
+        <v>0.0272776687161268</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05057533846379138</v>
+        <v>0.04980507775153207</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>112</v>
@@ -9225,19 +9225,19 @@
         <v>69494</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>57968</v>
+        <v>58444</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>83726</v>
+        <v>83551</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06210151827239084</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05180151431167813</v>
+        <v>0.05222702310833439</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0748196801209261</v>
+        <v>0.07466332377515369</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>160</v>
@@ -9246,19 +9246,19 @@
         <v>105890</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>89930</v>
+        <v>88965</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>124596</v>
+        <v>123039</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05020617506769975</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04263904392725006</v>
+        <v>0.04218161762154107</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.05907521627663412</v>
+        <v>0.05833709015854959</v>
       </c>
     </row>
     <row r="23">
@@ -9275,19 +9275,19 @@
         <v>149272</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>128522</v>
+        <v>129548</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>171808</v>
+        <v>170054</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1507699114970937</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.129812494068749</v>
+        <v>0.1308483397279008</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1735328580668564</v>
+        <v>0.1717614320090364</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>337</v>
@@ -9296,19 +9296,19 @@
         <v>207954</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>185867</v>
+        <v>186816</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>229788</v>
+        <v>229028</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1858322442854869</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1660950368639244</v>
+        <v>0.1669430828279639</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2053436688961928</v>
+        <v>0.2046649704406232</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>517</v>
@@ -9317,19 +9317,19 @@
         <v>357226</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>327222</v>
+        <v>327816</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>386345</v>
+        <v>385243</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.1693731708352842</v>
+        <v>0.1693731708352843</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1551473174201125</v>
+        <v>0.1554292454234369</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1831798942598723</v>
+        <v>0.1826574058465972</v>
       </c>
     </row>
     <row r="24">
@@ -9346,19 +9346,19 @@
         <v>464079</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>432397</v>
+        <v>432452</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>497465</v>
+        <v>494538</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.4687369866034348</v>
+        <v>0.4687369866034347</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4367377116809458</v>
+        <v>0.4367925777736055</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5024580519443679</v>
+        <v>0.4995017139436703</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>729</v>
@@ -9367,19 +9367,19 @@
         <v>514293</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>486118</v>
+        <v>486383</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>548006</v>
+        <v>543587</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.4595836227319303</v>
+        <v>0.4595836227319304</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.4344056225558555</v>
+        <v>0.4346422783050639</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4897102093544559</v>
+        <v>0.4857613595188958</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1232</v>
@@ -9388,19 +9388,19 @@
         <v>978372</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>934079</v>
+        <v>930936</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1023117</v>
+        <v>1023312</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.4638804243505436</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4428795908101226</v>
+        <v>0.4413894335494536</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4850954131705041</v>
+        <v>0.4851880610514661</v>
       </c>
     </row>
     <row r="25">
@@ -9417,19 +9417,19 @@
         <v>225571</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>198454</v>
+        <v>199145</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>256077</v>
+        <v>254730</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2278354220501784</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2004459205122519</v>
+        <v>0.2011441809711166</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2586476255588372</v>
+        <v>0.2572865350086351</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>301</v>
@@ -9438,19 +9438,19 @@
         <v>248875</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>222394</v>
+        <v>222263</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>276312</v>
+        <v>275607</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2224002280792703</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1987362665203559</v>
+        <v>0.1986191603290452</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.246918256250387</v>
+        <v>0.2462890031181736</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>499</v>
@@ -9459,19 +9459,19 @@
         <v>474446</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>435176</v>
+        <v>437907</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>512871</v>
+        <v>517653</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2249516343796773</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2063323811179151</v>
+        <v>0.2076271180845269</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.243170028723323</v>
+        <v>0.2454371826161858</v>
       </c>
     </row>
     <row r="26">
@@ -9488,19 +9488,19 @@
         <v>114745</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90888</v>
+        <v>92311</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>139418</v>
+        <v>142260</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.115896499435951</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0918007472792564</v>
+        <v>0.09323790849234273</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.140817936931067</v>
+        <v>0.1436882679852582</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>83</v>
@@ -9509,19 +9509,19 @@
         <v>78425</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>61495</v>
+        <v>62551</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>97517</v>
+        <v>97094</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07008238663092181</v>
+        <v>0.07008238663092183</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.05495367547536264</v>
+        <v>0.05589688579026592</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.08714373621459476</v>
+        <v>0.08676515561015999</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>160</v>
@@ -9530,19 +9530,19 @@
         <v>193170</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>166417</v>
+        <v>163438</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>228913</v>
+        <v>225690</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.09158859536679523</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.07890423362230457</v>
+        <v>0.07749174009091231</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1085355111613457</v>
+        <v>0.1070077350056675</v>
       </c>
     </row>
     <row r="27">
@@ -9634,19 +9634,19 @@
         <v>120790</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>103362</v>
+        <v>101805</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>141597</v>
+        <v>142903</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.03419125866015426</v>
+        <v>0.03419125866015425</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02925812952996407</v>
+        <v>0.02881731288819145</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.04008099624443008</v>
+        <v>0.04045090698372118</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>354</v>
@@ -9655,19 +9655,19 @@
         <v>200640</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>180998</v>
+        <v>181809</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>221810</v>
+        <v>222681</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05369996008558352</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.04844275479834186</v>
+        <v>0.04865999638584478</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.05936580881749194</v>
+        <v>0.05959911118767571</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>512</v>
@@ -9676,19 +9676,19 @@
         <v>321430</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>292427</v>
+        <v>292907</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>354642</v>
+        <v>350179</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04421876038385474</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.04022882361895107</v>
+        <v>0.04029490084971631</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.0487876868964993</v>
+        <v>0.04817374083865103</v>
       </c>
     </row>
     <row r="29">
@@ -9705,19 +9705,19 @@
         <v>492274</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>453257</v>
+        <v>451893</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>537939</v>
+        <v>538913</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1393453830017597</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1283010302768864</v>
+        <v>0.1279150055894737</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1522714905506436</v>
+        <v>0.1525471826719648</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>1183</v>
@@ -9726,19 +9726,19 @@
         <v>707950</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>667885</v>
+        <v>666975</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>743953</v>
+        <v>747797</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1894780552546521</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1787548180080102</v>
+        <v>0.1785113933923026</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1991139575797038</v>
+        <v>0.2001427151339578</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1746</v>
@@ -9747,19 +9747,19 @@
         <v>1200224</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1141280</v>
+        <v>1141151</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1256716</v>
+        <v>1258647</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1651136515536748</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1570047967286453</v>
+        <v>0.1569869579294932</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1728851403204915</v>
+        <v>0.1731507885829111</v>
       </c>
     </row>
     <row r="30">
@@ -9776,19 +9776,19 @@
         <v>1475126</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1414086</v>
+        <v>1408820</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1536262</v>
+        <v>1536472</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.4175560179099254</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.4002777508213636</v>
+        <v>0.3987872042440557</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4348614011347489</v>
+        <v>0.4349209259826051</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>2373</v>
@@ -9797,19 +9797,19 @@
         <v>1604347</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1551099</v>
+        <v>1551546</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1656087</v>
+        <v>1657627</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4293926081546615</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.4151410050589222</v>
+        <v>0.4152607259818628</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4432404599992717</v>
+        <v>0.4436524898220304</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>3899</v>
@@ -9818,19 +9818,19 @@
         <v>3079473</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2996533</v>
+        <v>2998658</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>3155715</v>
+        <v>3163051</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.4236400430069067</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.4122300859889916</v>
+        <v>0.4125223596191099</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.4341284831120602</v>
+        <v>0.4351377540150089</v>
       </c>
     </row>
     <row r="31">
@@ -9847,19 +9847,19 @@
         <v>1019591</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>959078</v>
+        <v>954845</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1079579</v>
+        <v>1076946</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2886101280385474</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2714811065088362</v>
+        <v>0.2702828159472213</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3055905474854773</v>
+        <v>0.304845336914656</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>1149</v>
@@ -9868,19 +9868,19 @@
         <v>930958</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>883846</v>
+        <v>883321</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>983694</v>
+        <v>983693</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2491644393161533</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2365552409378039</v>
+        <v>0.2364147174030699</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2632789867143995</v>
+        <v>0.2632788370403933</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>2006</v>
@@ -9889,19 +9889,19 @@
         <v>1950548</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1877656</v>
+        <v>1865876</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>2034181</v>
+        <v>2030343</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2683349850123296</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2583071795738502</v>
+        <v>0.2566867156807646</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2798402505877721</v>
+        <v>0.2793121781549028</v>
       </c>
     </row>
     <row r="32">
@@ -9918,19 +9918,19 @@
         <v>424981</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>371273</v>
+        <v>377340</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>473545</v>
+        <v>483359</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1202972123896133</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1050942377906531</v>
+        <v>0.1068117509449979</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1340437699096047</v>
+        <v>0.1368218343157861</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>307</v>
@@ -9939,19 +9939,19 @@
         <v>292423</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>260020</v>
+        <v>262196</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>331738</v>
+        <v>329574</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0782649371889495</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06959267912029987</v>
+        <v>0.07017501881029313</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08878740064878779</v>
+        <v>0.08820817136403972</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>579</v>
@@ -9960,19 +9960,19 @@
         <v>717404</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>654176</v>
+        <v>659968</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>784680</v>
+        <v>781865</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.09869256004323422</v>
+        <v>0.09869256004323423</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08999434895711918</v>
+        <v>0.09079117743477283</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1079475739211606</v>
+        <v>0.1075603338709261</v>
       </c>
     </row>
     <row r="33">
